--- a/biology/Médecine/Philibert_Jambon/Philibert_Jambon.xlsx
+++ b/biology/Médecine/Philibert_Jambon/Philibert_Jambon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Philibert Jambon, né le 26 octobre 1741 à Émeringes et mort le 10 juin 1809 à Lyon, est un mécanicien et inventeur français.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philibert Jambon est le fils de Benoit Jambon et de Marie Margerand, famille de vignerons du village d'Émeringes proche de Mâcon[1].
-Il est l'inventeur des prothèses mécaniques[2],[3].
-A partir du 6 décembre 1802[4] il est membre titulaire de l'Académie des sciences, belles-lettres et arts de Lyon[5].
-Jambon est une des premières personnes à être inhumée au cimetière de Loyasse de Lyon et son monument est le plus ancien subsistant dans ce champ de repos[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philibert Jambon est le fils de Benoit Jambon et de Marie Margerand, famille de vignerons du village d'Émeringes proche de Mâcon.
+Il est l'inventeur des prothèses mécaniques,.
+A partir du 6 décembre 1802 il est membre titulaire de l'Académie des sciences, belles-lettres et arts de Lyon.
+Jambon est une des premières personnes à être inhumée au cimetière de Loyasse de Lyon et son monument est le plus ancien subsistant dans ce champ de repos.
 </t>
         </is>
       </c>
